--- a/cleansing/data/master/network/1期Aシステム.xlsx
+++ b/cleansing/data/master/network/1期Aシステム.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="frsw3"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\work\gradle\gradle-server-acceptance\cleansing\data\master\network\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="19320" windowHeight="5175" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="19320" windowHeight="5175" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="ネットワーク台帳" sheetId="1" r:id="rId4"/>
+    <sheet name="ネットワーク台帳" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1535923981" val="934" rev="123" revOS="4"/>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ネットワーク管理台帳</t>
   </si>
@@ -62,197 +66,61 @@
   </si>
   <si>
     <t>構成管理</t>
+  </si>
+  <si>
+    <t>サイト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Aサイト</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;¥&quot;;\-#,##0\ &quot;¥&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;¥&quot;;[Red]\-#,##0\ &quot;¥&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;¥&quot;;\-#,##0.00\ &quot;¥&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;¥&quot;;[Red]\-#,##0.00\ &quot;¥&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;¥&quot;_-;\-* #,##0\ &quot;¥&quot;_-;_-* &quot;-&quot;\ &quot;¥&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _¥_-;\-* #,##0\ _¥_-;_-* &quot;-&quot;\ _¥_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;¥&quot;_-;\-* #,##0.00\ &quot;¥&quot;_-;_-* &quot;-&quot;??\ &quot;¥&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _¥_-;\-* #,##0.00\ _¥_-;_-* &quot;-&quot;??\ _¥_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="YY/MM/DD"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <family val="3"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1535923981" ulstyle="none" kern="1">
-            <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1535923981" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <family val="3"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1535923981" ulstyle="none" kern="1">
-            <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1535923981" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00DDEBF7"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1535923981" type="1" fgLvl="100" fgClr="00DCE6F1" bgLvl="100" bgClr="00DCE6F1"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1535923981" type="1" fgLvl="100" fgClr="004F81BD" bgLvl="100" bgClr="004F81BD"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1535923981"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9BC2E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9BC2E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9BC2E6"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1535923981">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="9BC2E6"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="9BC2E6"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="9BC2E6"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1535923981"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1535923981"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -260,15 +128,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1535923981" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
@@ -287,10 +180,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B3:G6" totalsRowShown="0">
-  <autoFilter ref="B3:G6"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B3:H6" totalsRowShown="0">
+  <autoFilter ref="B3:H6"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="設置場所" totalsRowLabel="合計"/>
+    <tableColumn id="7" name="サイト" dataDxfId="0"/>
     <tableColumn id="2" name="ホスト名"/>
     <tableColumn id="3" name="上位/下位"/>
     <tableColumn id="4" name="機種"/>
@@ -302,7 +196,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -312,10 +206,10 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -344,14 +238,74 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="ＭＳ Ｐゴシック"/>
-        <a:ea typeface="SimSun"/>
-        <a:cs typeface="Times New Roman"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -527,102 +481,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.745455" customWidth="1"/>
-    <col min="3" max="3" width="9.872727" customWidth="1"/>
-    <col min="4" max="6" width="12.127273" customWidth="1"/>
-    <col min="7" max="7" width="22.745455" customWidth="1"/>
+    <col min="2" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1535923981" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1535923981" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1535923981" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1535923981" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1535923981" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
